--- a/download/achaulienReport.xlsx
+++ b/download/achaulienReport.xlsx
@@ -5,10 +5,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-02-18 - 2025-03-17" sheetId="1" r:id="rId3"/>
+    <sheet name="2025-02-19 - 2025-03-18" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025-02-18 - 2025-03-17'!$A$1:$Q$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2025-02-19 - 2025-03-18'!$A$1:$Q$96</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -67,34 +67,292 @@
     <t>Sales W12</t>
   </si>
   <si>
+    <t>EAG SHIITAKE 100G TORKAD</t>
+  </si>
+  <si>
+    <t>C06179</t>
+  </si>
+  <si>
+    <t>K01</t>
+  </si>
+  <si>
+    <t>KOO SÅS 425G HOISIN</t>
+  </si>
+  <si>
+    <t>H04009</t>
+  </si>
+  <si>
+    <t>TWI DRESSI250ML SESAM GOM</t>
+  </si>
+  <si>
+    <t>J04089</t>
+  </si>
+  <si>
+    <t>TOT BULJONG 250G KYCKLING</t>
+  </si>
+  <si>
+    <t>C05086</t>
+  </si>
+  <si>
+    <t>TWI SÅS 220ML KIMCHEE</t>
+  </si>
+  <si>
+    <t>J04096</t>
+  </si>
+  <si>
+    <t>TWI SOJA 1L JAPANSK</t>
+  </si>
+  <si>
+    <t>J04097</t>
+  </si>
+  <si>
+    <t>TWI SUSHI 14G YAKI NORI</t>
+  </si>
+  <si>
+    <t>J06000</t>
+  </si>
+  <si>
+    <t>TWI PANKO 500G</t>
+  </si>
+  <si>
+    <t>J03022</t>
+  </si>
+  <si>
+    <t>TWI SOJASÅS500X8ML JAPANS</t>
+  </si>
+  <si>
+    <t>J04086</t>
+  </si>
+  <si>
+    <t>TWI SAMBAL OELEK 100X5G</t>
+  </si>
+  <si>
+    <t>C04129</t>
+  </si>
+  <si>
+    <t>HEN VINÄGE550ML CHINKIANG</t>
+  </si>
+  <si>
+    <t>C04127</t>
+  </si>
+  <si>
+    <t>CHU NUDLAR 1,8KG SHANGHAI</t>
+  </si>
+  <si>
+    <t>C02251</t>
+  </si>
+  <si>
+    <t>CHU NUDLAR 1,8KG SHANXI</t>
+  </si>
+  <si>
+    <t>C02255</t>
+  </si>
+  <si>
+    <t>AMP KOKOSMJÖLK 500ML</t>
+  </si>
+  <si>
+    <t>T06375</t>
+  </si>
+  <si>
+    <t>TWI VINÄGER 1L SUSHI</t>
+  </si>
+  <si>
+    <t>J04090</t>
+  </si>
+  <si>
+    <t>TWI SWEET CHIL SÅ 100X10G</t>
+  </si>
+  <si>
+    <t>C04130</t>
+  </si>
+  <si>
+    <t>TWI WASABI PASTE 500X2,6G</t>
+  </si>
+  <si>
+    <t>J05012</t>
+  </si>
+  <si>
+    <t>COC CURRYPASTA 50G RÖD</t>
+  </si>
+  <si>
+    <t>T05314</t>
+  </si>
+  <si>
+    <t>K02</t>
+  </si>
+  <si>
+    <t>TWI SESAMPASTA 200G</t>
+  </si>
+  <si>
+    <t>C06177</t>
+  </si>
+  <si>
+    <t>DEL YUZUSIRAP 200ML</t>
+  </si>
+  <si>
+    <t>K04038</t>
+  </si>
+  <si>
+    <t>WAN GO CHU JANG170G</t>
+  </si>
+  <si>
+    <t>K04001</t>
+  </si>
+  <si>
+    <t>PAN SÅS300ML TERIYAKI/GAR</t>
+  </si>
+  <si>
+    <t>T04227</t>
+  </si>
+  <si>
+    <t>TWI VIT SESAM 1KG ROSTAD</t>
+  </si>
+  <si>
+    <t>J03006</t>
+  </si>
+  <si>
+    <t>K04</t>
+  </si>
+  <si>
+    <t>TWI GARI VIT INGEFÄRA 1KG</t>
+  </si>
+  <si>
+    <t>J06007</t>
+  </si>
+  <si>
+    <t>MAK RIS 20KG SUSHI PREMIU</t>
+  </si>
+  <si>
+    <t>J03009</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>HEA SOJASÅS 300ML SVAMP</t>
+  </si>
+  <si>
+    <t>T04024</t>
+  </si>
+  <si>
+    <t>NES SÅS 200ML MAGGI</t>
+  </si>
+  <si>
+    <t>T04060</t>
+  </si>
+  <si>
+    <t>PAN SÅS 300ML VÅRRULLS</t>
+  </si>
+  <si>
+    <t>T04210</t>
+  </si>
+  <si>
+    <t>LOB SATAY 100G KRYDDBL</t>
+  </si>
+  <si>
+    <t>T05012</t>
+  </si>
+  <si>
+    <t>SUK SÅS 230ML GYOZA</t>
+  </si>
+  <si>
+    <t>K04003</t>
+  </si>
+  <si>
+    <t>AMP KOKOSMJÖLK 250ML</t>
+  </si>
+  <si>
+    <t>T06081</t>
+  </si>
+  <si>
+    <t>KRU LIME25G TORK BLAD</t>
+  </si>
+  <si>
+    <t>T05164</t>
+  </si>
+  <si>
+    <t>PK TWI SÅS 220ML KIMCHEE</t>
+  </si>
+  <si>
+    <t>J04096 KLIPP</t>
+  </si>
+  <si>
+    <t>TWI MIRIN FU 1L</t>
+  </si>
+  <si>
+    <t>J04080</t>
+  </si>
+  <si>
+    <t>JIA MISOPASTA 1KG</t>
+  </si>
+  <si>
+    <t>J06016</t>
+  </si>
+  <si>
+    <t>TWI WHI RICE VINEGAR625ML</t>
+  </si>
+  <si>
+    <t>C04021</t>
+  </si>
+  <si>
+    <t>TWI SRIRACHA 798ML HOT</t>
+  </si>
+  <si>
+    <t>V04021</t>
+  </si>
+  <si>
     <t>TWI VERMICELLI NOODL 400G</t>
   </si>
   <si>
     <t>V02120</t>
   </si>
   <si>
-    <t>K02</t>
-  </si>
-  <si>
-    <t>PK TWI SÅS 220ML KIMCHEE</t>
-  </si>
-  <si>
-    <t>J04096 KLIPP</t>
-  </si>
-  <si>
-    <t>TWI MIRIN FU 1L</t>
-  </si>
-  <si>
-    <t>J04080</t>
-  </si>
-  <si>
-    <t>K01</t>
-  </si>
-  <si>
-    <t>JIA MISOPASTA 1KG</t>
-  </si>
-  <si>
-    <t>J06016</t>
+    <t>TWI SESAMOLJA 500ML</t>
+  </si>
+  <si>
+    <t>C04080</t>
+  </si>
+  <si>
+    <t>UNC MJÖL1KG TEMPURA</t>
+  </si>
+  <si>
+    <t>T03003</t>
+  </si>
+  <si>
+    <t>OYS FISKSÅS 700ML</t>
+  </si>
+  <si>
+    <t>T04134</t>
+  </si>
+  <si>
+    <t>COC CURRY PAST400G RÖD</t>
+  </si>
+  <si>
+    <t>T05251</t>
+  </si>
+  <si>
+    <t>ARO BAMBUSKOTT 540G SKIV</t>
+  </si>
+  <si>
+    <t>T06299</t>
+  </si>
+  <si>
+    <t>FAR RISNUDLAR 400G</t>
+  </si>
+  <si>
+    <t>T02184</t>
+  </si>
+  <si>
+    <t>LOB SÅS 120GPAD THAI</t>
+  </si>
+  <si>
+    <t>T05230</t>
+  </si>
+  <si>
+    <t>TWI NOODLES400G QUIC COOK</t>
+  </si>
+  <si>
+    <t>C02150</t>
   </si>
   <si>
     <t>TWI WASABIPULVER 1KG</t>
@@ -103,10 +361,262 @@
     <t>J05009</t>
   </si>
   <si>
-    <t>TWI VINÄGER 1L SUSHI</t>
-  </si>
-  <si>
-    <t>J04090</t>
+    <t>KEW MAJONNÄS 355ML</t>
+  </si>
+  <si>
+    <t>J06031</t>
+  </si>
+  <si>
+    <t>PK TWI SOJA 150ML JAPANSK</t>
+  </si>
+  <si>
+    <t>J04101 KLIPP</t>
+  </si>
+  <si>
+    <t>TWI SÅSMIX100G CURR JAPAN</t>
+  </si>
+  <si>
+    <t>J05010</t>
+  </si>
+  <si>
+    <t>TWI RISVINÄGER5L KINESISK</t>
+  </si>
+  <si>
+    <t>C04133</t>
+  </si>
+  <si>
+    <t>COC CURRYPASTA 50G PANANG</t>
+  </si>
+  <si>
+    <t>T05316</t>
+  </si>
+  <si>
+    <t>COC CURRYPASTA50G MASSAMA</t>
+  </si>
+  <si>
+    <t>T05317</t>
+  </si>
+  <si>
+    <t>COC CURRYPASTA 50G GRÖN</t>
+  </si>
+  <si>
+    <t>T05315</t>
+  </si>
+  <si>
+    <t>DEL RISKAKA300G TOPOKKI</t>
+  </si>
+  <si>
+    <t>K02127</t>
+  </si>
+  <si>
+    <t>CHU TAMARINDPASTA 435ML</t>
+  </si>
+  <si>
+    <t>T04532</t>
+  </si>
+  <si>
+    <t>TWI SUSHI 100X5G GINGER</t>
+  </si>
+  <si>
+    <t>J06028</t>
+  </si>
+  <si>
+    <t>DEL SÅS BULGOGI 480G</t>
+  </si>
+  <si>
+    <t>K04033</t>
+  </si>
+  <si>
+    <t>TWI SÅS 150ML PONZU</t>
+  </si>
+  <si>
+    <t>J04105</t>
+  </si>
+  <si>
+    <t>VIF NUDLAR60G PHO KYCKLIN</t>
+  </si>
+  <si>
+    <t>V02006</t>
+  </si>
+  <si>
+    <t>DEL NUDLAR165G RABO JJAJA</t>
+  </si>
+  <si>
+    <t>K02103</t>
+  </si>
+  <si>
+    <t>DEL NUDLAR165G RABO ORIGI</t>
+  </si>
+  <si>
+    <t>K02104</t>
+  </si>
+  <si>
+    <t>VIF NUDLAR60G PHO BIFF</t>
+  </si>
+  <si>
+    <t>V02005</t>
+  </si>
+  <si>
+    <t>GAR NUDLAR 230G HOT CHICK</t>
+  </si>
+  <si>
+    <t>K02137</t>
+  </si>
+  <si>
+    <t>GAR NUDLAR 213G KIMCHI</t>
+  </si>
+  <si>
+    <t>K02139</t>
+  </si>
+  <si>
+    <t>DEL NUDL320G JAPCHA ORIGI</t>
+  </si>
+  <si>
+    <t>K02143</t>
+  </si>
+  <si>
+    <t>DEL NUDL320G JAPCHA SPICY</t>
+  </si>
+  <si>
+    <t>K02144</t>
+  </si>
+  <si>
+    <t>DEL RABOK HOT CHICKEN165G</t>
+  </si>
+  <si>
+    <t>K02157</t>
+  </si>
+  <si>
+    <t>TWI STRÖBRÖD 1KG PANKO</t>
+  </si>
+  <si>
+    <t>J03012</t>
+  </si>
+  <si>
+    <t>TWI SESAM ROSTAD SVART1KG</t>
+  </si>
+  <si>
+    <t>J03005</t>
+  </si>
+  <si>
+    <t>TWI RISPAPP 340G/22CM GF</t>
+  </si>
+  <si>
+    <t>V03042</t>
+  </si>
+  <si>
+    <t>TWI SJÖGRÄS NORI140G ROST</t>
+  </si>
+  <si>
+    <t>J06002</t>
+  </si>
+  <si>
+    <t>TWI SRIRACHA CHI SAU 510G</t>
+  </si>
+  <si>
+    <t>V04020</t>
+  </si>
+  <si>
+    <t>TWI GUA BAO 8P 360G BUNS</t>
+  </si>
+  <si>
+    <t>C01187</t>
+  </si>
+  <si>
+    <t>BAM NUDLAR400G RIS VERMIC</t>
+  </si>
+  <si>
+    <t>V02001</t>
+  </si>
+  <si>
+    <t>WAN NUDLAR 340G SJÖGRÄS</t>
+  </si>
+  <si>
+    <t>K02029</t>
+  </si>
+  <si>
+    <t>OIS SUSHIRIS 1KG</t>
+  </si>
+  <si>
+    <t>J03016</t>
+  </si>
+  <si>
+    <t>TWI JACKFRUIT 565G GREEN</t>
+  </si>
+  <si>
+    <t>T06042</t>
+  </si>
+  <si>
+    <t>NES MAGGI 680ML</t>
+  </si>
+  <si>
+    <t>T04053</t>
+  </si>
+  <si>
+    <t>HEA SÅS 700ML SVAMP/SOJA</t>
+  </si>
+  <si>
+    <t>T04026</t>
+  </si>
+  <si>
+    <t>TWI SESAMOLJA 150ML</t>
+  </si>
+  <si>
+    <t>C04079</t>
+  </si>
+  <si>
+    <t>OYS FISKSÅS 200ML</t>
+  </si>
+  <si>
+    <t>T04522</t>
+  </si>
+  <si>
+    <t>TWI GLASNUDLAR 100G</t>
+  </si>
+  <si>
+    <t>C02086</t>
+  </si>
+  <si>
+    <t>KRU PALMSOCKER 300G</t>
+  </si>
+  <si>
+    <t>T07074</t>
+  </si>
+  <si>
+    <t>DEL LAVER 14G SEASONED</t>
+  </si>
+  <si>
+    <t>K09069</t>
+  </si>
+  <si>
+    <t>LAO CHILI 210G KRISP OLJA</t>
+  </si>
+  <si>
+    <t>C04012</t>
+  </si>
+  <si>
+    <t>WAN KIMCHI 410G</t>
+  </si>
+  <si>
+    <t>K06001</t>
+  </si>
+  <si>
+    <t>TWI MISOPASTA300G SHI VIT</t>
+  </si>
+  <si>
+    <t>J06017</t>
+  </si>
+  <si>
+    <t>DEL KIMCHI 160G SLICED</t>
+  </si>
+  <si>
+    <t>K06009</t>
+  </si>
+  <si>
+    <t>COC CURRY 400G PANANG</t>
+  </si>
+  <si>
+    <t>T05154</t>
   </si>
   <si>
     <t>TWI THAI SWEE CHILI 4,5L</t>
@@ -115,81 +625,6 @@
     <t>T04518</t>
   </si>
   <si>
-    <t>TWI WHI RICE VINEGAR625ML</t>
-  </si>
-  <si>
-    <t>C04021</t>
-  </si>
-  <si>
-    <t>TWI SWEET CHIL SÅ 100X10G</t>
-  </si>
-  <si>
-    <t>C04130</t>
-  </si>
-  <si>
-    <t>TWI VIT SESAM 1KG ROSTAD</t>
-  </si>
-  <si>
-    <t>J03006</t>
-  </si>
-  <si>
-    <t>K04</t>
-  </si>
-  <si>
-    <t>TWI GARI VIT INGEFÄRA 1KG</t>
-  </si>
-  <si>
-    <t>J06007</t>
-  </si>
-  <si>
-    <t>TWI SRIRACHA 798ML HOT</t>
-  </si>
-  <si>
-    <t>V04021</t>
-  </si>
-  <si>
-    <t>TWI SESAMOLJA 500ML</t>
-  </si>
-  <si>
-    <t>C04080</t>
-  </si>
-  <si>
-    <t>TWI SUSHI 14G YAKI NORI</t>
-  </si>
-  <si>
-    <t>J06000</t>
-  </si>
-  <si>
-    <t>TWI PANKO 500G</t>
-  </si>
-  <si>
-    <t>J03022</t>
-  </si>
-  <si>
-    <t>TWI WASABI PASTE 500X2,6G</t>
-  </si>
-  <si>
-    <t>J05012</t>
-  </si>
-  <si>
-    <t>TWI SOJASÅS500X8ML JAPANS</t>
-  </si>
-  <si>
-    <t>J04086</t>
-  </si>
-  <si>
-    <t>PK TWI SOJA 150ML JAPANSK</t>
-  </si>
-  <si>
-    <t>J04101 KLIPP</t>
-  </si>
-  <si>
-    <t>UNC MJÖL1KG TEMPURA</t>
-  </si>
-  <si>
-    <t>T03003</t>
-  </si>
-  <si>
     <t>EAG FIVE SPIC100G CHINESE</t>
   </si>
   <si>
@@ -212,441 +647,6 @@
   </si>
   <si>
     <t>C05079</t>
-  </si>
-  <si>
-    <t>TWI SJÖGRÄS NORI140G ROST</t>
-  </si>
-  <si>
-    <t>J06002</t>
-  </si>
-  <si>
-    <t>TWI SUSHI 100X5G GINGER</t>
-  </si>
-  <si>
-    <t>J06028</t>
-  </si>
-  <si>
-    <t>TWI STRÖBRÖD 1KG PANKO</t>
-  </si>
-  <si>
-    <t>J03012</t>
-  </si>
-  <si>
-    <t>TWI SESAM ROSTAD SVART1KG</t>
-  </si>
-  <si>
-    <t>J03005</t>
-  </si>
-  <si>
-    <t>TWI SRIRACHA CHI SAU 510G</t>
-  </si>
-  <si>
-    <t>V04020</t>
-  </si>
-  <si>
-    <t>OYS FISKSÅS 700ML</t>
-  </si>
-  <si>
-    <t>T04134</t>
-  </si>
-  <si>
-    <t>NES MAGGI 680ML</t>
-  </si>
-  <si>
-    <t>T04053</t>
-  </si>
-  <si>
-    <t>COC CURRY PAST400G RÖD</t>
-  </si>
-  <si>
-    <t>T05251</t>
-  </si>
-  <si>
-    <t>HEA SÅS 700ML SVAMP/SOJA</t>
-  </si>
-  <si>
-    <t>T04026</t>
-  </si>
-  <si>
-    <t>ARO BAMBUSKOTT 540G SKIV</t>
-  </si>
-  <si>
-    <t>T06299</t>
-  </si>
-  <si>
-    <t>TWI GLASNUDLAR 100G</t>
-  </si>
-  <si>
-    <t>C02086</t>
-  </si>
-  <si>
-    <t>FAR RISNUDLAR 400G</t>
-  </si>
-  <si>
-    <t>T02184</t>
-  </si>
-  <si>
-    <t>COC CURRY 400G PANANG</t>
-  </si>
-  <si>
-    <t>T05154</t>
-  </si>
-  <si>
-    <t>HEA SOJASÅS 300ML SVAMP</t>
-  </si>
-  <si>
-    <t>T04024</t>
-  </si>
-  <si>
-    <t>NES SÅS 200ML MAGGI</t>
-  </si>
-  <si>
-    <t>T04060</t>
-  </si>
-  <si>
-    <t>PAN SÅS 300ML VÅRRULLS</t>
-  </si>
-  <si>
-    <t>T04210</t>
-  </si>
-  <si>
-    <t>LOB SATAY 100G KRYDDBL</t>
-  </si>
-  <si>
-    <t>T05012</t>
-  </si>
-  <si>
-    <t>PAN SÅS300ML TERIYAKI/GAR</t>
-  </si>
-  <si>
-    <t>T04227</t>
-  </si>
-  <si>
-    <t>KRU PALMSOCKER 300G</t>
-  </si>
-  <si>
-    <t>T07074</t>
-  </si>
-  <si>
-    <t>LOB SÅS 120GPAD THAI</t>
-  </si>
-  <si>
-    <t>T05230</t>
-  </si>
-  <si>
-    <t>KRU LIME25G TORK BLAD</t>
-  </si>
-  <si>
-    <t>T05164</t>
-  </si>
-  <si>
-    <t>BAM NUDLAR400G RIS VERMIC</t>
-  </si>
-  <si>
-    <t>V02001</t>
-  </si>
-  <si>
-    <t>WAN GO CHU JANG170G</t>
-  </si>
-  <si>
-    <t>K04001</t>
-  </si>
-  <si>
-    <t>WAN KIMCHI 410G</t>
-  </si>
-  <si>
-    <t>K06001</t>
-  </si>
-  <si>
-    <t>WAN NUDLAR 340G SJÖGRÄS</t>
-  </si>
-  <si>
-    <t>K02029</t>
-  </si>
-  <si>
-    <t>SUK SÅS 230ML GYOZA</t>
-  </si>
-  <si>
-    <t>K04003</t>
-  </si>
-  <si>
-    <t>TWI NOODLES400G QUIC COOK</t>
-  </si>
-  <si>
-    <t>C02150</t>
-  </si>
-  <si>
-    <t>MAK RIS 20KG SUSHI PREMIU</t>
-  </si>
-  <si>
-    <t>J03009</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>TWI JACKFRUIT 565G GREEN</t>
-  </si>
-  <si>
-    <t>T06042</t>
-  </si>
-  <si>
-    <t>TWI MISOPASTA300G SHI VIT</t>
-  </si>
-  <si>
-    <t>J06017</t>
-  </si>
-  <si>
-    <t>AMP KOKOSMJÖLK 250ML</t>
-  </si>
-  <si>
-    <t>T06081</t>
-  </si>
-  <si>
-    <t>DEL LAVER 14G SEASONED</t>
-  </si>
-  <si>
-    <t>K09069</t>
-  </si>
-  <si>
-    <t>KOO SÅS 425G HOISIN</t>
-  </si>
-  <si>
-    <t>H04009</t>
-  </si>
-  <si>
-    <t>GAR NUDLAR 230G HOT CHICK</t>
-  </si>
-  <si>
-    <t>K02137</t>
-  </si>
-  <si>
-    <t>GAR NUDLAR 213G KIMCHI</t>
-  </si>
-  <si>
-    <t>K02139</t>
-  </si>
-  <si>
-    <t>COC CURRYPASTA 50G RÖD</t>
-  </si>
-  <si>
-    <t>T05314</t>
-  </si>
-  <si>
-    <t>COC CURRYPASTA 50G PANANG</t>
-  </si>
-  <si>
-    <t>T05316</t>
-  </si>
-  <si>
-    <t>COC CURRYPASTA50G MASSAMA</t>
-  </si>
-  <si>
-    <t>T05317</t>
-  </si>
-  <si>
-    <t>COC CURRYPASTA 50G GRÖN</t>
-  </si>
-  <si>
-    <t>T05315</t>
-  </si>
-  <si>
-    <t>DEL RISKAKA300G TOPOKKI</t>
-  </si>
-  <si>
-    <t>K02127</t>
-  </si>
-  <si>
-    <t>TWI RISVINÄGER5L KINESISK</t>
-  </si>
-  <si>
-    <t>C04133</t>
-  </si>
-  <si>
-    <t>CHU TAMARINDPASTA 435ML</t>
-  </si>
-  <si>
-    <t>T04532</t>
-  </si>
-  <si>
-    <t>DEL YUZUSIRAP 200ML</t>
-  </si>
-  <si>
-    <t>K04038</t>
-  </si>
-  <si>
-    <t>DEL NUDL320G JAPCHA ORIGI</t>
-  </si>
-  <si>
-    <t>K02143</t>
-  </si>
-  <si>
-    <t>DEL NUDL320G JAPCHA SPICY</t>
-  </si>
-  <si>
-    <t>K02144</t>
-  </si>
-  <si>
-    <t>DEL RABOK HOT CHICKEN165G</t>
-  </si>
-  <si>
-    <t>K02157</t>
-  </si>
-  <si>
-    <t>TWI SESAMOLJA 150ML</t>
-  </si>
-  <si>
-    <t>C04079</t>
-  </si>
-  <si>
-    <t>TWI DRESSI250ML SESAM GOM</t>
-  </si>
-  <si>
-    <t>J04089</t>
-  </si>
-  <si>
-    <t>LAO CHILI 210G KRISP OLJA</t>
-  </si>
-  <si>
-    <t>C04012</t>
-  </si>
-  <si>
-    <t>TWI SÅSMIX100G CURR JAPAN</t>
-  </si>
-  <si>
-    <t>J05010</t>
-  </si>
-  <si>
-    <t>KEW MAJONNÄS 355ML</t>
-  </si>
-  <si>
-    <t>J06031</t>
-  </si>
-  <si>
-    <t>TWI SÅS 150ML PONZU</t>
-  </si>
-  <si>
-    <t>J04105</t>
-  </si>
-  <si>
-    <t>TWI SESAMPASTA 200G</t>
-  </si>
-  <si>
-    <t>C06177</t>
-  </si>
-  <si>
-    <t>OYS FISKSÅS 200ML</t>
-  </si>
-  <si>
-    <t>T04522</t>
-  </si>
-  <si>
-    <t>TOT BULJONG 250G KYCKLING</t>
-  </si>
-  <si>
-    <t>C05086</t>
-  </si>
-  <si>
-    <t>TWI SÅS 220ML KIMCHEE</t>
-  </si>
-  <si>
-    <t>J04096</t>
-  </si>
-  <si>
-    <t>DEL KIMCHI 160G SLICED</t>
-  </si>
-  <si>
-    <t>K06009</t>
-  </si>
-  <si>
-    <t>TWI SOJA 1L JAPANSK</t>
-  </si>
-  <si>
-    <t>J04097</t>
-  </si>
-  <si>
-    <t>EAG SHIITAKE 100G TORKAD</t>
-  </si>
-  <si>
-    <t>C06179</t>
-  </si>
-  <si>
-    <t>HEN VINÄGE550ML CHINKIANG</t>
-  </si>
-  <si>
-    <t>C04127</t>
-  </si>
-  <si>
-    <t>CHU NUDLAR 1,8KG SHANGHAI</t>
-  </si>
-  <si>
-    <t>C02251</t>
-  </si>
-  <si>
-    <t>CHU NUDLAR 1,8KG SHANXI</t>
-  </si>
-  <si>
-    <t>C02255</t>
-  </si>
-  <si>
-    <t>OIS SUSHIRIS 1KG</t>
-  </si>
-  <si>
-    <t>J03016</t>
-  </si>
-  <si>
-    <t>TWI SAMBAL OELEK 100X5G</t>
-  </si>
-  <si>
-    <t>C04129</t>
-  </si>
-  <si>
-    <t>DEL SÅS BULGOGI 480G</t>
-  </si>
-  <si>
-    <t>K04033</t>
-  </si>
-  <si>
-    <t>AMP KOKOSMJÖLK 500ML</t>
-  </si>
-  <si>
-    <t>T06375</t>
-  </si>
-  <si>
-    <t>VIF NUDLAR60G PHO KYCKLIN</t>
-  </si>
-  <si>
-    <t>V02006</t>
-  </si>
-  <si>
-    <t>DEL NUDLAR165G RABO JJAJA</t>
-  </si>
-  <si>
-    <t>K02103</t>
-  </si>
-  <si>
-    <t>DEL NUDLAR165G RABO ORIGI</t>
-  </si>
-  <si>
-    <t>K02104</t>
-  </si>
-  <si>
-    <t>VIF NUDLAR60G PHO BIFF</t>
-  </si>
-  <si>
-    <t>V02005</t>
-  </si>
-  <si>
-    <t>TWI RISPAPP 340G/22CM GF</t>
-  </si>
-  <si>
-    <t>V03042</t>
-  </si>
-  <si>
-    <t>TWI GUA BAO 8P 360G BUNS</t>
-  </si>
-  <si>
-    <t>C01187</t>
   </si>
 </sst>
 </file>
@@ -803,46 +803,46 @@
         <v>17</v>
       </c>
       <c r="B2" s="2">
-        <v>7350116920918</v>
+        <v>7350116924022</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>101421559</v>
+        <v>101501028</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M2" s="2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N2" s="2">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="O2" s="2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P2" s="2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="Q2" s="2">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -850,13 +850,46 @@
         <v>20</v>
       </c>
       <c r="B3" s="2">
-        <v>650391</v>
+        <v>20717230156</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2">
-        <v>101703283</v>
+        <v>101503389</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2">
+        <v>42</v>
+      </c>
+      <c r="I3" s="2">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2">
+        <v>6</v>
+      </c>
+      <c r="M3" s="2">
+        <v>58</v>
+      </c>
+      <c r="N3" s="2">
+        <v>60</v>
+      </c>
+      <c r="O3" s="2">
+        <v>59</v>
+      </c>
+      <c r="P3" s="2">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -864,16 +897,16 @@
         <v>22</v>
       </c>
       <c r="B4" s="2">
-        <v>7350116922158</v>
+        <v>7350116923483</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2">
-        <v>101354493</v>
+        <v>101414618</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -885,89 +918,89 @@
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N4" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="O4" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P4" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6922130121292</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2">
-        <v>6948546100058</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="2">
+        <v>101500964</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>60</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>60</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>27</v>
+      </c>
+      <c r="N5" s="2">
         <v>26</v>
       </c>
-      <c r="D5" s="2">
-        <v>101354625</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>5</v>
-      </c>
-      <c r="N5" s="2">
-        <v>6</v>
-      </c>
       <c r="O5" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="P5" s="2">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="2">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7350116923773</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2">
-        <v>7350116921168</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="D6" s="2">
-        <v>101361549</v>
+        <v>101500992</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -979,98 +1012,98 @@
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="N6" s="2">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="O6" s="2">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="P6" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="2">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7350116923957</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="2">
-        <v>7350116923537</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="D7" s="2">
-        <v>101414835</v>
+        <v>101501024</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="M7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" s="2">
+        <v>4</v>
+      </c>
+      <c r="O7" s="2">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="2">
         <v>2</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1</v>
-      </c>
-      <c r="P7" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7350116924299</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2">
-        <v>7350116921960</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" s="2">
-        <v>101431464</v>
+        <v>101543774</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -1079,83 +1112,83 @@
         <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N8" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O8" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P8" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q8" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7350116924695</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="2">
-        <v>7350116920284</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="D9" s="2">
-        <v>101431491</v>
+        <v>101584095</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K9" s="2">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="N9" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="O9" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="P9" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="Q9" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7350116922288</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="2">
-        <v>7350116924756</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="D10" s="2">
-        <v>101584105</v>
+        <v>101584104</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -1169,46 +1202,40 @@
       <c r="J10" s="2">
         <v>0</v>
       </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
       <c r="M10" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P10" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7350116924763</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="2">
-        <v>7350116920116</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D11" s="2">
-        <v>101268782</v>
+        <v>101584106</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
@@ -1217,274 +1244,274 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N11" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O11" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P11" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2">
-        <v>7350116922752</v>
+        <v>6902007505264</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2">
-        <v>101268808</v>
+        <v>101543769</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M12" s="2">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="N12" s="2">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="O12" s="2">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="P12" s="2">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="2">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2">
-        <v>7350116921281</v>
+        <v>6920802311422</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2">
-        <v>101431483</v>
+        <v>101543772</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G13" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I13" s="2">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J13" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M13" s="2">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="N13" s="2">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="O13" s="2">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="P13" s="2">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="2">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2">
-        <v>7350116923698</v>
+        <v>6920802311415</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2">
-        <v>101527280</v>
+        <v>101543773</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
         <v>36</v>
       </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
       <c r="M14" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N14" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="O14" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="P14" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2">
-        <v>7350116924299</v>
+        <v>8850161166204</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2">
-        <v>101543774</v>
+        <v>101584119</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I15" s="2">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M15" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="N15" s="2">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="O15" s="2">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="P15" s="2">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="2">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2">
-        <v>7350116924695</v>
+        <v>7350116923537</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2">
-        <v>101584095</v>
+        <v>101414835</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G16" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
       </c>
       <c r="M16" s="2">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="N16" s="2">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="O16" s="2">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="2">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2">
-        <v>7350116922271</v>
+        <v>7350116924756</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2">
-        <v>101584103</v>
+        <v>101584105</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1502,36 +1529,36 @@
         <v>0</v>
       </c>
       <c r="M17" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N17" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O17" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="P17" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q17" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2">
-        <v>7350116922288</v>
+        <v>7350116922271</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2">
-        <v>101584104</v>
+        <v>101584103</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -1545,95 +1572,134 @@
       <c r="J18" s="2">
         <v>0</v>
       </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
       <c r="M18" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="O18" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="P18" s="2">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2">
+        <v>84909002198</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="2">
+        <v>101667098</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="2">
-        <v>7350116924626</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="2">
-        <v>101721587</v>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>4</v>
+      </c>
+      <c r="N19" s="2">
+        <v>5</v>
+      </c>
+      <c r="O19" s="2">
+        <v>5</v>
+      </c>
+      <c r="P19" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="2">
+        <v>7350116923742</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="2">
-        <v>8850297990216</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="D20" s="2">
+        <v>101444943</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>55</v>
+      </c>
+      <c r="N20" s="2">
         <v>57</v>
       </c>
-      <c r="D20" s="2">
-        <v>101276368</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>45</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>45</v>
-      </c>
-      <c r="M20" s="2">
-        <v>10</v>
-      </c>
-      <c r="N20" s="2">
-        <v>9</v>
-      </c>
       <c r="O20" s="2">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="P20" s="2">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="Q20" s="2">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="2">
+        <v>8800242940391</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="2">
-        <v>7350116923988</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="D21" s="2">
-        <v>101500967</v>
+        <v>101676927</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -1651,89 +1717,89 @@
         <v>0</v>
       </c>
       <c r="M21" s="2">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="N21" s="2">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="O21" s="2">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="P21" s="2">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="2">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="2">
+        <v>87703295988</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="2">
-        <v>7350116924015</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="D22" s="2">
-        <v>101500993</v>
+        <v>101262307</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="J22" s="2">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="K22" s="2">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="M22" s="2">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="N22" s="2">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="O22" s="2">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="P22" s="2">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="Q22" s="2">
-        <v>2</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="2">
+        <v>8850058009041</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="2">
-        <v>7350116924008</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="D23" s="2">
-        <v>101501001</v>
+        <v>101217322</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
@@ -1745,54 +1811,66 @@
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="N23" s="2">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="O23" s="2">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="P23" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="2">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="2">
+        <v>7350116920116</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="2">
-        <v>7350116923995</v>
-      </c>
-      <c r="C24" s="0" t="s">
+      <c r="D24" s="2">
+        <v>101268782</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="2">
-        <v>101501002</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>24</v>
+      <c r="G24" s="2">
+        <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>20</v>
+      </c>
+      <c r="M24" s="2">
+        <v>9</v>
+      </c>
+      <c r="N24" s="2">
         <v>10</v>
       </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
-        <v>1</v>
-      </c>
       <c r="O24" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P24" s="2">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1800,16 +1878,16 @@
         <v>66</v>
       </c>
       <c r="B25" s="2">
-        <v>7350116920932</v>
+        <v>7350116922752</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="2">
-        <v>101338643</v>
+        <v>101268808</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
@@ -1824,22 +1902,22 @@
         <v>0</v>
       </c>
       <c r="K25" s="2">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="M25" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N25" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O25" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P25" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q25" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1847,22 +1925,22 @@
         <v>68</v>
       </c>
       <c r="B26" s="2">
-        <v>7350116922301</v>
+        <v>7350116920017</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="2">
-        <v>101584107</v>
+        <v>101328333</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
@@ -1874,89 +1952,89 @@
         <v>0</v>
       </c>
       <c r="M26" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N26" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O26" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P26" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q26" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B27" s="2">
-        <v>7350116921090</v>
+        <v>8850206010066</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D27" s="2">
-        <v>101336762</v>
+        <v>101206307</v>
       </c>
       <c r="E27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="2">
+        <v>76</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>22</v>
+      </c>
+      <c r="N27" s="2">
+        <v>23</v>
+      </c>
+      <c r="O27" s="2">
+        <v>23</v>
+      </c>
+      <c r="P27" s="2">
         <v>24</v>
       </c>
-      <c r="G27" s="2">
-        <v>75</v>
-      </c>
-      <c r="H27" s="2">
-        <v>90</v>
-      </c>
-      <c r="I27" s="2">
-        <v>75</v>
-      </c>
-      <c r="J27" s="2">
-        <v>75</v>
-      </c>
-      <c r="K27" s="2">
-        <v>75</v>
-      </c>
-      <c r="M27" s="2">
-        <v>86</v>
-      </c>
-      <c r="N27" s="2">
-        <v>74</v>
-      </c>
-      <c r="O27" s="2">
-        <v>74</v>
-      </c>
-      <c r="P27" s="2">
-        <v>74</v>
-      </c>
       <c r="Q27" s="2">
-        <v>74</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" s="2">
-        <v>7350116920130</v>
+        <v>8850124065414</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2">
-        <v>101345345</v>
+        <v>101206309</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
@@ -1968,553 +2046,520 @@
         <v>0</v>
       </c>
       <c r="M28" s="2">
+        <v>2</v>
+      </c>
+      <c r="N28" s="2">
+        <v>2</v>
+      </c>
+      <c r="O28" s="2">
         <v>3</v>
       </c>
-      <c r="N28" s="2">
-        <v>4</v>
-      </c>
-      <c r="O28" s="2">
-        <v>4</v>
-      </c>
       <c r="P28" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q28" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B29" s="2">
-        <v>7350116921298</v>
+        <v>8850058006637</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D29" s="2">
-        <v>101387714</v>
+        <v>101206340</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>95</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
         <v>44</v>
       </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2">
-        <v>44</v>
-      </c>
-      <c r="M29" s="2">
-        <v>14</v>
-      </c>
       <c r="N29" s="2">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="O29" s="2">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="P29" s="2">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="Q29" s="2">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B30" s="2">
-        <v>8850213107001</v>
+        <v>8850030112011</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" s="2">
-        <v>101186860</v>
+        <v>101206609</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G30" s="2">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="J30" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="K30" s="2">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="M30" s="2">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="N30" s="2">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="O30" s="2">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="P30" s="2">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="Q30" s="2">
-        <v>169</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" s="2">
-        <v>8850124065421</v>
+        <v>87703327412</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D31" s="2">
-        <v>101186903</v>
+        <v>101288027</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G31" s="2">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="H31" s="2">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="I31" s="2">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="J31" s="2">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M31" s="2">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="N31" s="2">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="O31" s="2">
-        <v>175</v>
+        <v>7</v>
       </c>
       <c r="P31" s="2">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="Q31" s="2">
-        <v>176</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2">
-        <v>84909002341</v>
+        <v>8850161166136</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D32" s="2">
-        <v>101186912</v>
+        <v>101345955</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="G32" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J32" s="2">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M32" s="2">
         <v>48</v>
       </c>
       <c r="N32" s="2">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="O32" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="P32" s="2">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="Q32" s="2">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33" s="2">
-        <v>8850206010028</v>
+        <v>8859448686022</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D33" s="2">
-        <v>101186919</v>
+        <v>101255053</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G33" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H33" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I33" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J33" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K33" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M33" s="2">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="N33" s="2">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="O33" s="2">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="P33" s="2">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="2">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B34" s="2">
-        <v>7350116922769</v>
+        <v>650391</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D34" s="2">
-        <v>101188772</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="2">
-        <v>40</v>
-      </c>
-      <c r="H34" s="2">
-        <v>40</v>
-      </c>
-      <c r="I34" s="2">
-        <v>80</v>
-      </c>
-      <c r="J34" s="2">
-        <v>40</v>
-      </c>
-      <c r="K34" s="2">
-        <v>80</v>
-      </c>
-      <c r="M34" s="2">
-        <v>56</v>
-      </c>
-      <c r="N34" s="2">
-        <v>57</v>
-      </c>
-      <c r="O34" s="2">
-        <v>55</v>
-      </c>
-      <c r="P34" s="2">
-        <v>56</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>57</v>
+        <v>101703283</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B35" s="2">
-        <v>7350116920024</v>
+        <v>7350116922158</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D35" s="2">
-        <v>101194421</v>
+        <v>101354493</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G35" s="2">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="H35" s="2">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="J35" s="2">
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="K35" s="2">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="M35" s="2">
-        <v>271</v>
+        <v>4</v>
       </c>
       <c r="N35" s="2">
-        <v>273</v>
+        <v>5</v>
       </c>
       <c r="O35" s="2">
-        <v>275</v>
+        <v>4</v>
       </c>
       <c r="P35" s="2">
-        <v>272</v>
+        <v>5</v>
       </c>
       <c r="Q35" s="2">
-        <v>273</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B36" s="2">
-        <v>8850521111127</v>
+        <v>6948546100058</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D36" s="2">
-        <v>101195358</v>
+        <v>101354625</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G36" s="2">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="J36" s="2">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="K36" s="2">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="M36" s="2">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="N36" s="2">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="O36" s="2">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="P36" s="2">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="Q36" s="2">
-        <v>126</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B37" s="2">
-        <v>84909001924</v>
+        <v>7350116920284</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D37" s="2">
-        <v>101203723</v>
+        <v>101431491</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
       </c>
       <c r="J37" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K37" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="M37" s="2">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="N37" s="2">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="O37" s="2">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="P37" s="2">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="Q37" s="2">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B38" s="2">
-        <v>8850206010066</v>
+        <v>7350116921281</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D38" s="2">
-        <v>101206307</v>
+        <v>101431483</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G38" s="2">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J38" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K38" s="2">
         <v>0</v>
       </c>
       <c r="M38" s="2">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="N38" s="2">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="O38" s="2">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="P38" s="2">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="Q38" s="2">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B39" s="2">
-        <v>8850124065414</v>
+        <v>7350116920918</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D39" s="2">
-        <v>101206309</v>
+        <v>101421559</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I39" s="2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J39" s="2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K39" s="2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M39" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="N39" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="O39" s="2">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="P39" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="Q39" s="2">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B40" s="2">
-        <v>8850058006637</v>
+        <v>7350116923698</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D40" s="2">
-        <v>101206340</v>
+        <v>101527280</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
@@ -2523,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
@@ -2532,559 +2577,526 @@
         <v>0</v>
       </c>
       <c r="M40" s="2">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="N40" s="2">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="O40" s="2">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="P40" s="2">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="Q40" s="2">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B41" s="2">
-        <v>8850030112011</v>
+        <v>8850297990216</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D41" s="2">
-        <v>101206609</v>
+        <v>101276368</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
       </c>
       <c r="J41" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M41" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N41" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O41" s="2">
         <v>10</v>
       </c>
       <c r="P41" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q41" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B42" s="2">
-        <v>8850058009041</v>
+        <v>8850213107001</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D42" s="2">
-        <v>101217322</v>
+        <v>101186860</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G42" s="2">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="H42" s="2">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="I42" s="2">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="J42" s="2">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="K42" s="2">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="M42" s="2">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="N42" s="2">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="O42" s="2">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="P42" s="2">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="Q42" s="2">
-        <v>32</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B43" s="2">
-        <v>8859448686015</v>
+        <v>84909002341</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D43" s="2">
-        <v>101225197</v>
+        <v>101186912</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="G43" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H43" s="2">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I43" s="2">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="J43" s="2">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K43" s="2">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="M43" s="2">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="N43" s="2">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="O43" s="2">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="P43" s="2">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="Q43" s="2">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B44" s="2">
-        <v>8850030003074</v>
+        <v>7350116922769</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D44" s="2">
-        <v>101240162</v>
+        <v>101188772</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G44" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H44" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I44" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J44" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K44" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M44" s="2">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="N44" s="2">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="O44" s="2">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="P44" s="2">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="Q44" s="2">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B45" s="2">
-        <v>8859448686022</v>
+        <v>8850521111127</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D45" s="2">
-        <v>101255053</v>
+        <v>101195358</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="G45" s="2">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="H45" s="2">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="I45" s="2">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="J45" s="2">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="K45" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M45" s="2">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="N45" s="2">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="O45" s="2">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="P45" s="2">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="Q45" s="2">
-        <v>57</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B46" s="2">
-        <v>8936007820360</v>
+        <v>8850030003074</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D46" s="2">
-        <v>101261105</v>
+        <v>101240162</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G46" s="2">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="J46" s="2">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="M46" s="2">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="N46" s="2">
-        <v>225</v>
+        <v>26</v>
       </c>
       <c r="O46" s="2">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="P46" s="2">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="Q46" s="2">
-        <v>225</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B47" s="2">
-        <v>87703295988</v>
+        <v>7350116920062</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D47" s="2">
-        <v>101262307</v>
+        <v>101319758</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G47" s="2">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="H47" s="2">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="I47" s="2">
-        <v>294</v>
+        <v>175</v>
       </c>
       <c r="J47" s="2">
-        <v>294</v>
+        <v>210</v>
       </c>
       <c r="K47" s="2">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="M47" s="2">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="N47" s="2">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="O47" s="2">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="P47" s="2">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="Q47" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B48" s="2">
-        <v>87703320710</v>
+        <v>7350116921168</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D48" s="2">
-        <v>101286570</v>
+        <v>101361549</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G48" s="2">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="I48" s="2">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="J48" s="2">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="K48" s="2">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="M48" s="2">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="N48" s="2">
-        <v>159</v>
+        <v>4</v>
       </c>
       <c r="O48" s="2">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="P48" s="2">
-        <v>159</v>
+        <v>4</v>
       </c>
       <c r="Q48" s="2">
-        <v>158</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B49" s="2">
-        <v>87703023192</v>
+        <v>8719189240177</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D49" s="2">
-        <v>101287997</v>
+        <v>101432149</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G49" s="2">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H49" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I49" s="2">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="J49" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K49" s="2">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="M49" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="N49" s="2">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="O49" s="2">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="P49" s="2">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="Q49" s="2">
-        <v>111</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B50" s="2">
-        <v>87703327412</v>
+        <v>7350116924626</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D50" s="2">
-        <v>101288027</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" s="2">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2">
-        <v>105</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
-      <c r="K50" s="2">
-        <v>0</v>
-      </c>
-      <c r="M50" s="2">
-        <v>7</v>
-      </c>
-      <c r="N50" s="2">
-        <v>7</v>
-      </c>
-      <c r="O50" s="2">
-        <v>7</v>
-      </c>
-      <c r="P50" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>7</v>
+        <v>101721587</v>
       </c>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B51" s="2">
-        <v>7350116920062</v>
+        <v>7350116922165</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D51" s="2">
-        <v>101319758</v>
+        <v>101414742</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G51" s="2">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="H51" s="2">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="I51" s="2">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="J51" s="2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="K51" s="2">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="M51" s="2">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="N51" s="2">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="O51" s="2">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="P51" s="2">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="Q51" s="2">
-        <v>131</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B52" s="2">
-        <v>7350116920017</v>
+        <v>7350116925128</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D52" s="2">
-        <v>101328333</v>
+        <v>101667103</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="G52" s="2">
         <v>0</v>
       </c>
       <c r="H52" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I52" s="2">
         <v>0</v>
@@ -3096,19 +3108,19 @@
         <v>0</v>
       </c>
       <c r="M52" s="2">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="N52" s="2">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="O52" s="2">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="P52" s="2">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="Q52" s="2">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3116,46 +3128,46 @@
         <v>123</v>
       </c>
       <c r="B53" s="2">
-        <v>7350116920123</v>
+        <v>84909011749</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>124</v>
       </c>
       <c r="D53" s="2">
-        <v>101330064</v>
+        <v>101667099</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="G53" s="2">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I53" s="2">
         <v>0</v>
       </c>
       <c r="J53" s="2">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="K53" s="2">
         <v>0</v>
       </c>
       <c r="M53" s="2">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N53" s="2">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="O53" s="2">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="P53" s="2">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="Q53" s="2">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3163,46 +3175,46 @@
         <v>125</v>
       </c>
       <c r="B54" s="2">
-        <v>7350116921151</v>
+        <v>84909009005</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>126</v>
       </c>
       <c r="D54" s="2">
-        <v>101343578</v>
+        <v>101667100</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="G54" s="2">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="I54" s="2">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="J54" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K54" s="2">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="M54" s="2">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="N54" s="2">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="O54" s="2">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="P54" s="2">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="Q54" s="2">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3210,16 +3222,16 @@
         <v>127</v>
       </c>
       <c r="B55" s="2">
-        <v>8850161166136</v>
+        <v>84909005465</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>128</v>
       </c>
       <c r="D55" s="2">
-        <v>101345955</v>
+        <v>101667101</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="G55" s="2">
         <v>0</v>
@@ -3228,28 +3240,28 @@
         <v>0</v>
       </c>
       <c r="I55" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J55" s="2">
         <v>0</v>
       </c>
       <c r="K55" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M55" s="2">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="N55" s="2">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="O55" s="2">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="P55" s="2">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="Q55" s="2">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3257,46 +3269,46 @@
         <v>129</v>
       </c>
       <c r="B56" s="2">
-        <v>8809063750530</v>
+        <v>8809923470103</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>130</v>
       </c>
       <c r="D56" s="2">
-        <v>101501994</v>
+        <v>101667102</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G56" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H56" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I56" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J56" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K56" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M56" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N56" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="O56" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="P56" s="2">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="Q56" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3304,46 +3316,46 @@
         <v>131</v>
       </c>
       <c r="B57" s="2">
-        <v>20717230156</v>
+        <v>8852391090076</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>132</v>
       </c>
       <c r="D57" s="2">
-        <v>101503389</v>
+        <v>101674821</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G57" s="2">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H57" s="2">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I57" s="2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J57" s="2">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="K57" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M57" s="2">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="N57" s="2">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="O57" s="2">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="P57" s="2">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="Q57" s="2">
-        <v>59</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3351,46 +3363,46 @@
         <v>133</v>
       </c>
       <c r="B58" s="2">
-        <v>8800242940063</v>
+        <v>7350116922301</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>134</v>
       </c>
       <c r="D58" s="2">
-        <v>101615901</v>
+        <v>101584107</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="G58" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I58" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J58" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M58" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N58" s="2">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="O58" s="2">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="P58" s="2">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="Q58" s="2">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3398,46 +3410,46 @@
         <v>135</v>
       </c>
       <c r="B59" s="2">
-        <v>8800242940049</v>
+        <v>87703071438</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>136</v>
       </c>
       <c r="D59" s="2">
-        <v>101615902</v>
+        <v>101584118</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G59" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H59" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="I59" s="2">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="J59" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K59" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M59" s="2">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N59" s="2">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="O59" s="2">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="P59" s="2">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="Q59" s="2">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3445,16 +3457,16 @@
         <v>137</v>
       </c>
       <c r="B60" s="2">
-        <v>84909002198</v>
+        <v>7350116923070</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>138</v>
       </c>
       <c r="D60" s="2">
-        <v>101667098</v>
+        <v>101444942</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="G60" s="2">
         <v>0</v>
@@ -3472,19 +3484,19 @@
         <v>0</v>
       </c>
       <c r="M60" s="2">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="N60" s="2">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="O60" s="2">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="P60" s="2">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="Q60" s="2">
-        <v>5</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3492,46 +3504,46 @@
         <v>139</v>
       </c>
       <c r="B61" s="2">
-        <v>84909011749</v>
+        <v>8935311140010</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>140</v>
       </c>
       <c r="D61" s="2">
-        <v>101667099</v>
+        <v>101602569</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G61" s="2">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="H61" s="2">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="I61" s="2">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="J61" s="2">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="K61" s="2">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="M61" s="2">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N61" s="2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="O61" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="P61" s="2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="Q61" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3539,46 +3551,46 @@
         <v>141</v>
       </c>
       <c r="B62" s="2">
-        <v>84909009005</v>
+        <v>8809528240354</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>142</v>
       </c>
       <c r="D62" s="2">
-        <v>101667100</v>
+        <v>101607814</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G62" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H62" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="I62" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="J62" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K62" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M62" s="2">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="N62" s="2">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="O62" s="2">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="P62" s="2">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="Q62" s="2">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3586,46 +3598,46 @@
         <v>143</v>
       </c>
       <c r="B63" s="2">
-        <v>84909005465</v>
+        <v>8809528240330</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>144</v>
       </c>
       <c r="D63" s="2">
-        <v>101667101</v>
+        <v>101607815</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G63" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H63" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I63" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J63" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K63" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M63" s="2">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="N63" s="2">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="O63" s="2">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="P63" s="2">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="Q63" s="2">
-        <v>18</v>
+        <v>293</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -3633,46 +3645,46 @@
         <v>145</v>
       </c>
       <c r="B64" s="2">
-        <v>8809923470103</v>
+        <v>8935311140003</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>146</v>
       </c>
       <c r="D64" s="2">
-        <v>101667102</v>
+        <v>101607816</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G64" s="2">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="H64" s="2">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="I64" s="2">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J64" s="2">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="K64" s="2">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="M64" s="2">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="N64" s="2">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="O64" s="2">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="P64" s="2">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="Q64" s="2">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -3680,46 +3692,46 @@
         <v>147</v>
       </c>
       <c r="B65" s="2">
-        <v>7350116925128</v>
+        <v>8800242940063</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>148</v>
       </c>
       <c r="D65" s="2">
-        <v>101667103</v>
+        <v>101615901</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G65" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H65" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I65" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J65" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K65" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M65" s="2">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N65" s="2">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="O65" s="2">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="P65" s="2">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="Q65" s="2">
-        <v>57</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -3727,46 +3739,46 @@
         <v>149</v>
       </c>
       <c r="B66" s="2">
-        <v>8852391090076</v>
+        <v>8800242940049</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>150</v>
       </c>
       <c r="D66" s="2">
-        <v>101674821</v>
+        <v>101615902</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G66" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H66" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I66" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J66" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K66" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M66" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N66" s="2">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="O66" s="2">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="P66" s="2">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="Q66" s="2">
-        <v>160</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -3774,16 +3786,16 @@
         <v>151</v>
       </c>
       <c r="B67" s="2">
-        <v>8800242940391</v>
+        <v>8800242940131</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>152</v>
       </c>
       <c r="D67" s="2">
-        <v>101676927</v>
+        <v>101696728</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G67" s="2">
         <v>0</v>
@@ -3801,19 +3813,19 @@
         <v>0</v>
       </c>
       <c r="M67" s="2">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N67" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="O67" s="2">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="P67" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="Q67" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -3821,16 +3833,16 @@
         <v>153</v>
       </c>
       <c r="B68" s="2">
-        <v>8800242940131</v>
+        <v>8800242940315</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>154</v>
       </c>
       <c r="D68" s="2">
-        <v>101696728</v>
+        <v>101696729</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G68" s="2">
         <v>0</v>
@@ -3868,16 +3880,16 @@
         <v>155</v>
       </c>
       <c r="B69" s="2">
-        <v>8800242940315</v>
+        <v>8800242940070</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>156</v>
       </c>
       <c r="D69" s="2">
-        <v>101696729</v>
+        <v>101698120</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G69" s="2">
         <v>0</v>
@@ -3895,19 +3907,19 @@
         <v>0</v>
       </c>
       <c r="M69" s="2">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N69" s="2">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="O69" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="P69" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="Q69" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -3915,46 +3927,46 @@
         <v>157</v>
       </c>
       <c r="B70" s="2">
-        <v>8800242940070</v>
+        <v>7350116921090</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>158</v>
       </c>
       <c r="D70" s="2">
-        <v>101698120</v>
+        <v>101336762</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G70" s="2">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H70" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I70" s="2">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J70" s="2">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K70" s="2">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="M70" s="2">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="N70" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="O70" s="2">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="P70" s="2">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="Q70" s="2">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -3962,46 +3974,46 @@
         <v>159</v>
       </c>
       <c r="B71" s="2">
-        <v>7350116923681</v>
+        <v>7350116920130</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>160</v>
       </c>
       <c r="D71" s="2">
-        <v>101414238</v>
+        <v>101345345</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G71" s="2">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="H71" s="2">
-        <v>510</v>
+        <v>20</v>
       </c>
       <c r="I71" s="2">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J71" s="2">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="K71" s="2">
-        <v>765</v>
+        <v>0</v>
       </c>
       <c r="M71" s="2">
-        <v>462</v>
+        <v>3</v>
       </c>
       <c r="N71" s="2">
-        <v>416</v>
+        <v>4</v>
       </c>
       <c r="O71" s="2">
-        <v>416</v>
+        <v>4</v>
       </c>
       <c r="P71" s="2">
-        <v>416</v>
+        <v>4</v>
       </c>
       <c r="Q71" s="2">
-        <v>416</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4009,46 +4021,46 @@
         <v>161</v>
       </c>
       <c r="B72" s="2">
-        <v>7350116923483</v>
+        <v>7350116921465</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>162</v>
       </c>
       <c r="D72" s="2">
-        <v>101414618</v>
+        <v>101464285</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G72" s="2">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="H72" s="2">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="I72" s="2">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="J72" s="2">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="K72" s="2">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="M72" s="2">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="N72" s="2">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="O72" s="2">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="P72" s="2">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="Q72" s="2">
-        <v>14</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4056,46 +4068,46 @@
         <v>163</v>
       </c>
       <c r="B73" s="2">
-        <v>6921804720304</v>
+        <v>7350116920932</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>164</v>
       </c>
       <c r="D73" s="2">
-        <v>101414721</v>
+        <v>101338643</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G73" s="2">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="H73" s="2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I73" s="2">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="J73" s="2">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="K73" s="2">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="M73" s="2">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="N73" s="2">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="O73" s="2">
-        <v>193</v>
+        <v>6</v>
       </c>
       <c r="P73" s="2">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="Q73" s="2">
-        <v>193</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -4103,19 +4115,19 @@
         <v>165</v>
       </c>
       <c r="B74" s="2">
-        <v>7350116922165</v>
+        <v>7350116921298</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>166</v>
       </c>
       <c r="D74" s="2">
-        <v>101414742</v>
+        <v>101387714</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G74" s="2">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -4127,22 +4139,22 @@
         <v>0</v>
       </c>
       <c r="K74" s="2">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="M74" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N74" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O74" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P74" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Q74" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4150,46 +4162,46 @@
         <v>167</v>
       </c>
       <c r="B75" s="2">
-        <v>8719189240177</v>
+        <v>7350116923872</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>168</v>
       </c>
       <c r="D75" s="2">
-        <v>101432149</v>
+        <v>101469592</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G75" s="2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H75" s="2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I75" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="J75" s="2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K75" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M75" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="N75" s="2">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="O75" s="2">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="P75" s="2">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="Q75" s="2">
-        <v>181</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -4197,46 +4209,46 @@
         <v>169</v>
       </c>
       <c r="B76" s="2">
-        <v>7350116923070</v>
+        <v>8936007820360</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>170</v>
       </c>
       <c r="D76" s="2">
-        <v>101444942</v>
+        <v>101261105</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="G76" s="2">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="H76" s="2">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="I76" s="2">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="J76" s="2">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K76" s="2">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="M76" s="2">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="N76" s="2">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="O76" s="2">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c r="P76" s="2">
-        <v>111</v>
+        <v>226</v>
       </c>
       <c r="Q76" s="2">
-        <v>109</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -4244,46 +4256,46 @@
         <v>171</v>
       </c>
       <c r="B77" s="2">
-        <v>7350116923742</v>
+        <v>87703023192</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>172</v>
       </c>
       <c r="D77" s="2">
-        <v>101444943</v>
+        <v>101287997</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G77" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H77" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I77" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J77" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K77" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M77" s="2">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="N77" s="2">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="O77" s="2">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="P77" s="2">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="Q77" s="2">
-        <v>56</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -4291,46 +4303,46 @@
         <v>173</v>
       </c>
       <c r="B78" s="2">
-        <v>8850213102006</v>
+        <v>8030467000192</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>174</v>
       </c>
       <c r="D78" s="2">
-        <v>101474396</v>
+        <v>101584037</v>
       </c>
       <c r="E78" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="2">
+        <v>11</v>
+      </c>
+      <c r="H78" s="2">
+        <v>11</v>
+      </c>
+      <c r="I78" s="2">
+        <v>11</v>
+      </c>
+      <c r="J78" s="2">
+        <v>11</v>
+      </c>
+      <c r="K78" s="2">
+        <v>11</v>
+      </c>
+      <c r="M78" s="2">
+        <v>23</v>
+      </c>
+      <c r="N78" s="2">
+        <v>25</v>
+      </c>
+      <c r="O78" s="2">
         <v>24</v>
       </c>
-      <c r="G78" s="2">
-        <v>95</v>
-      </c>
-      <c r="H78" s="2">
-        <v>95</v>
-      </c>
-      <c r="I78" s="2">
-        <v>190</v>
-      </c>
-      <c r="J78" s="2">
-        <v>95</v>
-      </c>
-      <c r="K78" s="2">
-        <v>95</v>
-      </c>
-      <c r="M78" s="2">
-        <v>176</v>
-      </c>
-      <c r="N78" s="2">
-        <v>189</v>
-      </c>
-      <c r="O78" s="2">
-        <v>189</v>
-      </c>
       <c r="P78" s="2">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="Q78" s="2">
-        <v>189</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -4338,46 +4350,46 @@
         <v>175</v>
       </c>
       <c r="B79" s="2">
-        <v>6922130121292</v>
+        <v>7350116920123</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>176</v>
       </c>
       <c r="D79" s="2">
-        <v>101500964</v>
+        <v>101330064</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G79" s="2">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="H79" s="2">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="I79" s="2">
         <v>0</v>
       </c>
       <c r="J79" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="K79" s="2">
         <v>0</v>
       </c>
       <c r="M79" s="2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N79" s="2">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="O79" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="P79" s="2">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="Q79" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -4385,46 +4397,46 @@
         <v>177</v>
       </c>
       <c r="B80" s="2">
-        <v>7350116923773</v>
+        <v>8850124065421</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>178</v>
       </c>
       <c r="D80" s="2">
-        <v>101500992</v>
+        <v>101186903</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G80" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="H80" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I80" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="J80" s="2">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="K80" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M80" s="2">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="N80" s="2">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="O80" s="2">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="P80" s="2">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="Q80" s="2">
-        <v>31</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -4432,46 +4444,46 @@
         <v>179</v>
       </c>
       <c r="B81" s="2">
-        <v>87703070523</v>
+        <v>8850206010028</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>180</v>
       </c>
       <c r="D81" s="2">
-        <v>101500996</v>
+        <v>101186919</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G81" s="2">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="H81" s="2">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I81" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J81" s="2">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="K81" s="2">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="M81" s="2">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="N81" s="2">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="O81" s="2">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="P81" s="2">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="Q81" s="2">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -4479,46 +4491,46 @@
         <v>181</v>
       </c>
       <c r="B82" s="2">
-        <v>7350116923957</v>
+        <v>7350116923681</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>182</v>
       </c>
       <c r="D82" s="2">
-        <v>101501024</v>
+        <v>101414238</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G82" s="2">
-        <v>48</v>
+        <v>255</v>
       </c>
       <c r="H82" s="2">
-        <v>72</v>
+        <v>510</v>
       </c>
       <c r="I82" s="2">
-        <v>48</v>
+        <v>255</v>
       </c>
       <c r="J82" s="2">
-        <v>48</v>
+        <v>255</v>
       </c>
       <c r="K82" s="2">
-        <v>72</v>
+        <v>765</v>
       </c>
       <c r="M82" s="2">
-        <v>3</v>
+        <v>462</v>
       </c>
       <c r="N82" s="2">
-        <v>4</v>
+        <v>416</v>
       </c>
       <c r="O82" s="2">
-        <v>3</v>
+        <v>416</v>
       </c>
       <c r="P82" s="2">
-        <v>4</v>
+        <v>416</v>
       </c>
       <c r="Q82" s="2">
-        <v>2</v>
+        <v>416</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -4526,46 +4538,46 @@
         <v>183</v>
       </c>
       <c r="B83" s="2">
-        <v>7350116924022</v>
+        <v>8850213102006</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>184</v>
       </c>
       <c r="D83" s="2">
-        <v>101501028</v>
+        <v>101474396</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G83" s="2">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="H83" s="2">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I83" s="2">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="J83" s="2">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="K83" s="2">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="M83" s="2">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="N83" s="2">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="O83" s="2">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="P83" s="2">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="Q83" s="2">
-        <v>12</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -4573,46 +4585,46 @@
         <v>185</v>
       </c>
       <c r="B84" s="2">
-        <v>6902007505264</v>
+        <v>7350116920024</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D84" s="2">
-        <v>101543769</v>
+        <v>101194421</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G84" s="2">
-        <v>52</v>
+        <v>378</v>
       </c>
       <c r="H84" s="2">
-        <v>13</v>
+        <v>378</v>
       </c>
       <c r="I84" s="2">
-        <v>52</v>
+        <v>378</v>
       </c>
       <c r="J84" s="2">
-        <v>52</v>
+        <v>432</v>
       </c>
       <c r="K84" s="2">
-        <v>13</v>
+        <v>324</v>
       </c>
       <c r="M84" s="2">
-        <v>32</v>
+        <v>271</v>
       </c>
       <c r="N84" s="2">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="O84" s="2">
-        <v>34</v>
+        <v>275</v>
       </c>
       <c r="P84" s="2">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="Q84" s="2">
-        <v>34</v>
+        <v>273</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -4620,46 +4632,46 @@
         <v>187</v>
       </c>
       <c r="B85" s="2">
-        <v>6920802311422</v>
+        <v>8859448686015</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>188</v>
       </c>
       <c r="D85" s="2">
-        <v>101543772</v>
+        <v>101225197</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G85" s="2">
         <v>0</v>
       </c>
       <c r="H85" s="2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I85" s="2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J85" s="2">
         <v>0</v>
       </c>
       <c r="K85" s="2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M85" s="2">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N85" s="2">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O85" s="2">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="P85" s="2">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="Q85" s="2">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -4667,46 +4679,46 @@
         <v>189</v>
       </c>
       <c r="B86" s="2">
-        <v>6920802311415</v>
+        <v>8809063750530</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>190</v>
       </c>
       <c r="D86" s="2">
-        <v>101543773</v>
+        <v>101501994</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G86" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H86" s="2">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="I86" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J86" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K86" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M86" s="2">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="N86" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="O86" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="P86" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="Q86" s="2">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -4714,46 +4726,46 @@
         <v>191</v>
       </c>
       <c r="B87" s="2">
-        <v>8030467000192</v>
+        <v>6921804720304</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>192</v>
       </c>
       <c r="D87" s="2">
-        <v>101584037</v>
+        <v>101414721</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G87" s="2">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="H87" s="2">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="I87" s="2">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="J87" s="2">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="K87" s="2">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="M87" s="2">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="N87" s="2">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="O87" s="2">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="P87" s="2">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="Q87" s="2">
-        <v>24</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -4761,46 +4773,46 @@
         <v>193</v>
       </c>
       <c r="B88" s="2">
-        <v>7350116924763</v>
+        <v>87703320710</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>194</v>
       </c>
       <c r="D88" s="2">
-        <v>101584106</v>
+        <v>101286570</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G88" s="2">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="H88" s="2">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="I88" s="2">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="J88" s="2">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="K88" s="2">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="M88" s="2">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="N88" s="2">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="O88" s="2">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="P88" s="2">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="Q88" s="2">
-        <v>7</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -4808,46 +4820,46 @@
         <v>195</v>
       </c>
       <c r="B89" s="2">
-        <v>87703071438</v>
+        <v>7350116921151</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>196</v>
       </c>
       <c r="D89" s="2">
-        <v>101584118</v>
+        <v>101343578</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G89" s="2">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="H89" s="2">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="I89" s="2">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="J89" s="2">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="K89" s="2">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="M89" s="2">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="N89" s="2">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="O89" s="2">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="P89" s="2">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="Q89" s="2">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -4855,46 +4867,46 @@
         <v>197</v>
       </c>
       <c r="B90" s="2">
-        <v>8850161166204</v>
+        <v>87703070523</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>198</v>
       </c>
       <c r="D90" s="2">
-        <v>101584119</v>
+        <v>101500996</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G90" s="2">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="H90" s="2">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="I90" s="2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="J90" s="2">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="K90" s="2">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="M90" s="2">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N90" s="2">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="O90" s="2">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="P90" s="2">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="Q90" s="2">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -4902,46 +4914,46 @@
         <v>199</v>
       </c>
       <c r="B91" s="2">
-        <v>8935311140010</v>
+        <v>84909001924</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>200</v>
       </c>
       <c r="D91" s="2">
-        <v>101602569</v>
+        <v>101203723</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G91" s="2">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="H91" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="I91" s="2">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="J91" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="K91" s="2">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="M91" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N91" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O91" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P91" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q91" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -4949,46 +4961,46 @@
         <v>201</v>
       </c>
       <c r="B92" s="2">
-        <v>8809528240354</v>
+        <v>7350116921960</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>202</v>
       </c>
       <c r="D92" s="2">
-        <v>101607814</v>
+        <v>101431464</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G92" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H92" s="2">
-        <v>270</v>
+        <v>56</v>
       </c>
       <c r="I92" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="J92" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K92" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M92" s="2">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="N92" s="2">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="O92" s="2">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="P92" s="2">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="Q92" s="2">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -4996,46 +5008,46 @@
         <v>203</v>
       </c>
       <c r="B93" s="2">
-        <v>8809528240330</v>
+        <v>7350116923988</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>204</v>
       </c>
       <c r="D93" s="2">
-        <v>101607815</v>
+        <v>101500967</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G93" s="2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H93" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I93" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J93" s="2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K93" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M93" s="2">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="N93" s="2">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="O93" s="2">
-        <v>292</v>
+        <v>1</v>
       </c>
       <c r="P93" s="2">
-        <v>292</v>
+        <v>1</v>
       </c>
       <c r="Q93" s="2">
-        <v>293</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -5043,46 +5055,46 @@
         <v>205</v>
       </c>
       <c r="B94" s="2">
-        <v>8935311140003</v>
+        <v>7350116924015</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>206</v>
       </c>
       <c r="D94" s="2">
-        <v>101607816</v>
+        <v>101500993</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G94" s="2">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="H94" s="2">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="I94" s="2">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="J94" s="2">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="K94" s="2">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="M94" s="2">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="N94" s="2">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="O94" s="2">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="P94" s="2">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="Q94" s="2">
-        <v>63</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -5090,46 +5102,46 @@
         <v>207</v>
       </c>
       <c r="B95" s="2">
-        <v>7350116921465</v>
+        <v>7350116924008</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>208</v>
       </c>
       <c r="D95" s="2">
-        <v>101464285</v>
+        <v>101501001</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G95" s="2">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="H95" s="2">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="I95" s="2">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="J95" s="2">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="K95" s="2">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="M95" s="2">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="N95" s="2">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="O95" s="2">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="P95" s="2">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="Q95" s="2">
-        <v>120</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -5137,46 +5149,34 @@
         <v>209</v>
       </c>
       <c r="B96" s="2">
-        <v>7350116923872</v>
+        <v>7350116923995</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>210</v>
       </c>
       <c r="D96" s="2">
-        <v>101469592</v>
+        <v>101501002</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H96" s="2">
         <v>0</v>
       </c>
       <c r="I96" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J96" s="2">
         <v>0</v>
       </c>
-      <c r="K96" s="2">
-        <v>0</v>
-      </c>
-      <c r="M96" s="2">
-        <v>40</v>
-      </c>
       <c r="N96" s="2">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="O96" s="2">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="P96" s="2">
-        <v>61</v>
-      </c>
-      <c r="Q96" s="2">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
